--- a/boat/CarolinaSkiffMaintenanceLog.xlsx
+++ b/boat/CarolinaSkiffMaintenanceLog.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\BoatsTruck\CarolinaSkiff\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stevenbeck\Desktop\Reef_Project\Git\Beck_LC_R\boat\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -228,6 +228,9 @@
   </si>
   <si>
     <t>Chips in prop</t>
+  </si>
+  <si>
+    <t>Prop replaced:  Quicksilver Nemesis 4 blade 13 diameter, 17 pitch</t>
   </si>
 </sst>
 </file>
@@ -546,10 +549,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z43"/>
+  <dimension ref="A1:Z44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+      <selection activeCell="X48" sqref="X48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1249,6 +1252,17 @@
         <v>67</v>
       </c>
     </row>
+    <row r="44" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43464</v>
+      </c>
+      <c r="B44">
+        <v>140</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>68</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/boat/CarolinaSkiffMaintenanceLog.xlsx
+++ b/boat/CarolinaSkiffMaintenanceLog.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="71">
   <si>
     <t>Boat UF#</t>
   </si>
@@ -231,6 +231,12 @@
   </si>
   <si>
     <t>Prop replaced:  Quicksilver Nemesis 4 blade 13 diameter, 17 pitch</t>
+  </si>
+  <si>
+    <t>greased</t>
+  </si>
+  <si>
+    <t>Port trailer fender repaired/new bimini cover</t>
   </si>
 </sst>
 </file>
@@ -549,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z44"/>
+  <dimension ref="A1:Z48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="X48" sqref="X48"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M47" sqref="M47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1263,6 +1269,47 @@
         <v>68</v>
       </c>
     </row>
+    <row r="45" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>43493</v>
+      </c>
+      <c r="B45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>43501</v>
+      </c>
+      <c r="B46">
+        <v>20</v>
+      </c>
+      <c r="K46" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>43504</v>
+      </c>
+      <c r="B47">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>43517</v>
+      </c>
+      <c r="B48">
+        <v>120</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
